--- a/Files/Soltos/2015-grade_revisada em 2019.xlsx
+++ b/Files/Soltos/2015-grade_revisada em 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Curricularização da Extensão\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UENF\Misc_Docs-UENF\Files\Soltos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E24C569-3705-4B76-96BF-7F87BC6E0343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D78C3A-7036-4B3B-9451-EB3306624D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz-CC" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,11 @@
     <sheet name="Matriz-CC_Proposta" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
   <si>
     <t>Geometria Analítica</t>
   </si>
@@ -6801,15 +6788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>4215</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80331</xdr:rowOff>
+      <xdr:rowOff>82236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4215</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137711</xdr:rowOff>
+      <xdr:rowOff>133901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6824,8 +6811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2461665" y="1671006"/>
-          <a:ext cx="247650" cy="552680"/>
+          <a:off x="2564263" y="1674272"/>
+          <a:ext cx="244928" cy="541522"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15891,9 +15878,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15931,9 +15918,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15966,26 +15953,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16018,26 +15988,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16217,50 +16170,50 @@
       <selection activeCell="P56" sqref="P56:Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="3.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="3.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="21" width="3.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="2" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="2.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="2" customWidth="1"/>
-    <col min="31" max="33" width="3.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="2.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="3.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="2" customWidth="1"/>
-    <col min="37" max="39" width="3.42578125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="2.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="3.28515625" style="2" customWidth="1"/>
-    <col min="42" max="45" width="3.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="2.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="3.28515625" style="2" customWidth="1"/>
-    <col min="48" max="51" width="3.42578125" style="2" customWidth="1"/>
-    <col min="52" max="52" width="2.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="3.5703125" style="2" customWidth="1"/>
-    <col min="54" max="57" width="3.42578125" style="2" customWidth="1"/>
-    <col min="58" max="58" width="2.7109375" style="2" customWidth="1"/>
-    <col min="59" max="59" width="3.5703125" style="2" customWidth="1"/>
-    <col min="60" max="61" width="3.28515625" style="2" customWidth="1"/>
-    <col min="62" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="3" width="3.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="3.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="3.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="3.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="3.44140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="2.5546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="2" customWidth="1"/>
+    <col min="31" max="33" width="3.44140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="2.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="2" customWidth="1"/>
+    <col min="37" max="39" width="3.44140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="2.6640625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="3.33203125" style="2" customWidth="1"/>
+    <col min="42" max="45" width="3.44140625" style="2" customWidth="1"/>
+    <col min="46" max="46" width="2.6640625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="3.33203125" style="2" customWidth="1"/>
+    <col min="48" max="51" width="3.44140625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="2.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="3.5546875" style="2" customWidth="1"/>
+    <col min="54" max="57" width="3.44140625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="2.6640625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="3.5546875" style="2" customWidth="1"/>
+    <col min="60" max="61" width="3.33203125" style="2" customWidth="1"/>
+    <col min="62" max="16384" width="3.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
@@ -16323,7 +16276,7 @@
       <c r="BF1" s="38"/>
       <c r="BG1" s="39"/>
     </row>
-    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="40" t="s">
         <v>68</v>
       </c>
@@ -16386,11 +16339,11 @@
       <c r="BF2" s="41"/>
       <c r="BG2" s="42"/>
     </row>
-    <row r="3" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="BG3" s="15"/>
     </row>
-    <row r="4" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
@@ -16471,7 +16424,7 @@
       <c r="BF4" s="52"/>
       <c r="BG4" s="53"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="L5" s="1"/>
       <c r="R5" s="1"/>
@@ -16482,7 +16435,7 @@
       <c r="AV5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>0</v>
       </c>
@@ -16535,7 +16488,7 @@
       <c r="AV6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
@@ -16606,7 +16559,7 @@
       <c r="AV7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -16647,7 +16600,7 @@
       <c r="AV8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="L9" s="1"/>
       <c r="R9" s="1"/>
@@ -16658,7 +16611,7 @@
       <c r="AV9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>14</v>
       </c>
@@ -16718,7 +16671,7 @@
       <c r="AV10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
@@ -16799,7 +16752,7 @@
       <c r="AV11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -16845,7 +16798,7 @@
       <c r="AV12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="L13" s="1"/>
       <c r="R13" s="1"/>
@@ -16856,7 +16809,7 @@
       <c r="AV13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="75" t="s">
         <v>21</v>
@@ -16881,7 +16834,7 @@
       <c r="AV14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="78"/>
       <c r="H15" s="79"/>
@@ -16912,7 +16865,7 @@
       <c r="AV15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="81"/>
       <c r="H16" s="82"/>
@@ -16968,7 +16921,7 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="L17" s="1"/>
       <c r="R17" s="1"/>
@@ -17029,7 +16982,7 @@
       </c>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="75" t="s">
         <v>24</v>
@@ -17079,7 +17032,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="78"/>
       <c r="H19" s="79"/>
@@ -17110,7 +17063,7 @@
       <c r="AV19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="81"/>
       <c r="H20" s="82"/>
@@ -17131,7 +17084,7 @@
       <c r="AV20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="L21" s="1"/>
       <c r="R21" s="1"/>
@@ -17142,7 +17095,7 @@
       <c r="AV21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
         <v>31</v>
       </c>
@@ -17209,7 +17162,7 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
@@ -17300,7 +17253,7 @@
       </c>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
@@ -17351,7 +17304,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="L25" s="1"/>
       <c r="R25" s="1"/>
@@ -17362,7 +17315,7 @@
       <c r="AV25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="L26" s="1"/>
       <c r="R26" s="1"/>
@@ -17373,7 +17326,7 @@
       <c r="AV26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>38</v>
       </c>
@@ -17433,7 +17386,7 @@
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
@@ -17514,7 +17467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
       <c r="C29" s="83"/>
@@ -17560,7 +17513,7 @@
       <c r="BF29" s="5"/>
       <c r="BG29" s="5"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="L30" s="1"/>
       <c r="R30" s="1"/>
@@ -17571,7 +17524,7 @@
       <c r="AV30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="L31" s="1"/>
       <c r="R31" s="1"/>
@@ -17582,7 +17535,7 @@
       <c r="AV31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>45</v>
       </c>
@@ -17649,7 +17602,7 @@
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
@@ -17740,7 +17693,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="82"/>
       <c r="C34" s="83"/>
@@ -17791,7 +17744,7 @@
       <c r="BF34" s="5"/>
       <c r="BG34" s="5"/>
     </row>
-    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="L35" s="1"/>
       <c r="R35" s="1"/>
@@ -17805,7 +17758,7 @@
       <c r="AV35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
       <c r="R36" s="1"/>
@@ -17816,7 +17769,7 @@
       <c r="AV36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>53</v>
       </c>
@@ -17862,7 +17815,7 @@
       <c r="AV37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
@@ -17923,7 +17876,7 @@
       <c r="AV38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="81"/>
       <c r="B39" s="82"/>
       <c r="C39" s="83"/>
@@ -17959,7 +17912,7 @@
       <c r="AV39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="L40" s="1"/>
       <c r="R40" s="1"/>
@@ -17970,7 +17923,7 @@
       <c r="AV40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>58</v>
       </c>
@@ -18009,7 +17962,7 @@
       <c r="AV41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
@@ -18060,7 +18013,7 @@
       <c r="AV42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="B43" s="82"/>
       <c r="C43" s="83"/>
@@ -18091,7 +18044,7 @@
       <c r="AV43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
       <c r="L44" s="1"/>
       <c r="R44" s="1"/>
@@ -18102,7 +18055,7 @@
       <c r="AV44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>63</v>
       </c>
@@ -18195,7 +18148,7 @@
       </c>
       <c r="BG45" s="85"/>
     </row>
-    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -18288,7 +18241,7 @@
       </c>
       <c r="BG46" s="87"/>
     </row>
-    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>65</v>
       </c>
@@ -18381,7 +18334,7 @@
       </c>
       <c r="BG47" s="85"/>
     </row>
-    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
@@ -18474,8 +18427,8 @@
       </c>
       <c r="BG48" s="89"/>
     </row>
-    <row r="49" spans="10:60" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:60" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J50" s="51" t="s">
         <v>69</v>
       </c>
@@ -18513,7 +18466,7 @@
       <c r="AT50" s="73"/>
       <c r="AU50" s="74"/>
     </row>
-    <row r="51" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -18555,7 +18508,7 @@
       <c r="AT51" s="24"/>
       <c r="AU51" s="25"/>
     </row>
-    <row r="52" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J52" s="19" t="s">
         <v>71</v>
       </c>
@@ -18601,7 +18554,7 @@
       </c>
       <c r="AU52" s="29"/>
     </row>
-    <row r="53" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J53" s="19" t="s">
         <v>72</v>
       </c>
@@ -18631,7 +18584,7 @@
       <c r="AT53" s="28"/>
       <c r="AU53" s="29"/>
     </row>
-    <row r="54" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="19" t="s">
         <v>73</v>
       </c>
@@ -18678,7 +18631,7 @@
       </c>
       <c r="AU54" s="29"/>
     </row>
-    <row r="55" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J55" s="14" t="s">
         <v>74</v>
       </c>
@@ -18715,7 +18668,7 @@
       <c r="AT55" s="30"/>
       <c r="AU55" s="31"/>
     </row>
-    <row r="56" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J56" s="16" t="s">
         <v>75</v>
       </c>
@@ -18915,56 +18868,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53308C2-B78F-4DC6-A90D-DABE3F5C0377}">
-  <dimension ref="A1:BH56"/>
+  <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="3.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="3.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="21" width="3.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="2" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="2.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="2" customWidth="1"/>
-    <col min="31" max="33" width="3.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="2.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="3.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="2" customWidth="1"/>
-    <col min="37" max="39" width="3.42578125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="2.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="3.28515625" style="2" customWidth="1"/>
-    <col min="42" max="45" width="3.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="2.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="3.28515625" style="2" customWidth="1"/>
-    <col min="48" max="51" width="3.42578125" style="2" customWidth="1"/>
-    <col min="52" max="52" width="2.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="3.5703125" style="2" customWidth="1"/>
-    <col min="54" max="57" width="3.42578125" style="2" customWidth="1"/>
-    <col min="58" max="58" width="2.7109375" style="2" customWidth="1"/>
-    <col min="59" max="59" width="3.5703125" style="2" customWidth="1"/>
-    <col min="60" max="61" width="3.28515625" style="2" customWidth="1"/>
-    <col min="62" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="3" width="3.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="3.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="3.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="3.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="3.44140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="2.5546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="2" customWidth="1"/>
+    <col min="31" max="33" width="3.44140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="2.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="2" customWidth="1"/>
+    <col min="37" max="39" width="3.44140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="2.6640625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="3.33203125" style="2" customWidth="1"/>
+    <col min="42" max="45" width="3.44140625" style="2" customWidth="1"/>
+    <col min="46" max="46" width="2.6640625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="3.33203125" style="2" customWidth="1"/>
+    <col min="48" max="51" width="3.44140625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="2.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="3.5546875" style="2" customWidth="1"/>
+    <col min="54" max="57" width="3.44140625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="2.6640625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="3.5546875" style="2" customWidth="1"/>
+    <col min="60" max="61" width="3.33203125" style="2" customWidth="1"/>
+    <col min="62" max="16384" width="3.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
@@ -19027,7 +18980,7 @@
       <c r="BF1" s="38"/>
       <c r="BG1" s="39"/>
     </row>
-    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="40" t="s">
         <v>68</v>
       </c>
@@ -19090,11 +19043,11 @@
       <c r="BF2" s="41"/>
       <c r="BG2" s="42"/>
     </row>
-    <row r="3" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="BG3" s="15"/>
     </row>
-    <row r="4" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
@@ -19175,7 +19128,7 @@
       <c r="BF4" s="52"/>
       <c r="BG4" s="53"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="L5" s="1"/>
       <c r="R5" s="1"/>
@@ -19186,7 +19139,7 @@
       <c r="AV5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>0</v>
       </c>
@@ -19239,7 +19192,7 @@
       <c r="AV6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
@@ -19310,7 +19263,7 @@
       <c r="AV7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -19351,7 +19304,7 @@
       <c r="AV8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="L9" s="1"/>
       <c r="R9" s="1"/>
@@ -19362,7 +19315,7 @@
       <c r="AV9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>14</v>
       </c>
@@ -19422,7 +19375,7 @@
       <c r="AV10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
@@ -19503,7 +19456,7 @@
       <c r="AV11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -19549,7 +19502,7 @@
       <c r="AV12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="L13" s="1"/>
       <c r="R13" s="1"/>
@@ -19560,7 +19513,7 @@
       <c r="AV13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="75" t="s">
         <v>21</v>
@@ -19585,7 +19538,7 @@
       <c r="AV14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="78"/>
       <c r="H15" s="79"/>
@@ -19616,7 +19569,7 @@
       <c r="AV15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="81"/>
       <c r="H16" s="82"/>
@@ -19672,7 +19625,7 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="L17" s="1"/>
       <c r="R17" s="1"/>
@@ -19733,7 +19686,7 @@
       </c>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="75" t="s">
         <v>24</v>
@@ -19783,7 +19736,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="78"/>
       <c r="H19" s="79"/>
@@ -19814,7 +19767,7 @@
       <c r="AV19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="81"/>
       <c r="H20" s="82"/>
@@ -19835,7 +19788,7 @@
       <c r="AV20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="L21" s="1"/>
       <c r="R21" s="1"/>
@@ -19846,7 +19799,7 @@
       <c r="AV21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
         <v>31</v>
       </c>
@@ -19913,7 +19866,7 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
@@ -20004,7 +19957,7 @@
       </c>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
@@ -20055,7 +20008,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="L25" s="1"/>
       <c r="R25" s="1"/>
@@ -20066,7 +20019,7 @@
       <c r="AV25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="L26" s="1"/>
       <c r="R26" s="1"/>
@@ -20077,7 +20030,7 @@
       <c r="AV26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>38</v>
       </c>
@@ -20137,7 +20090,7 @@
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
@@ -20218,7 +20171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
       <c r="C29" s="83"/>
@@ -20264,7 +20217,7 @@
       <c r="BF29" s="5"/>
       <c r="BG29" s="5"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="L30" s="1"/>
       <c r="R30" s="1"/>
@@ -20275,7 +20228,7 @@
       <c r="AV30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="L31" s="1"/>
       <c r="R31" s="1"/>
@@ -20286,7 +20239,7 @@
       <c r="AV31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>45</v>
       </c>
@@ -20353,7 +20306,7 @@
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
@@ -20444,7 +20397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="82"/>
       <c r="C34" s="83"/>
@@ -20495,7 +20448,7 @@
       <c r="BF34" s="5"/>
       <c r="BG34" s="5"/>
     </row>
-    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="L35" s="1"/>
       <c r="R35" s="1"/>
@@ -20509,7 +20462,7 @@
       <c r="AV35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
       <c r="R36" s="1"/>
@@ -20520,7 +20473,7 @@
       <c r="AV36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>53</v>
       </c>
@@ -20566,7 +20519,7 @@
       <c r="AV37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
@@ -20627,7 +20580,7 @@
       <c r="AV38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="81"/>
       <c r="B39" s="82"/>
       <c r="C39" s="83"/>
@@ -20663,7 +20616,7 @@
       <c r="AV39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="L40" s="1"/>
       <c r="R40" s="1"/>
@@ -20674,7 +20627,7 @@
       <c r="AV40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>58</v>
       </c>
@@ -20713,7 +20666,7 @@
       <c r="AV41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
@@ -20764,7 +20717,7 @@
       <c r="AV42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="B43" s="82"/>
       <c r="C43" s="83"/>
@@ -20795,7 +20748,7 @@
       <c r="AV43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
       <c r="L44" s="1"/>
       <c r="R44" s="1"/>
@@ -20806,7 +20759,7 @@
       <c r="AV44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>63</v>
       </c>
@@ -20899,7 +20852,7 @@
       </c>
       <c r="BG45" s="85"/>
     </row>
-    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -20992,7 +20945,7 @@
       </c>
       <c r="BG46" s="87"/>
     </row>
-    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>65</v>
       </c>
@@ -21085,7 +21038,7 @@
       </c>
       <c r="BG47" s="85"/>
     </row>
-    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
@@ -21178,8 +21131,8 @@
       </c>
       <c r="BG48" s="89"/>
     </row>
-    <row r="49" spans="10:60" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:47" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J50" s="51" t="s">
         <v>69</v>
       </c>
@@ -21217,7 +21170,7 @@
       <c r="AT50" s="73"/>
       <c r="AU50" s="74"/>
     </row>
-    <row r="51" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:47" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -21259,7 +21212,7 @@
       <c r="AT51" s="24"/>
       <c r="AU51" s="25"/>
     </row>
-    <row r="52" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:47" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J52" s="19" t="s">
         <v>71</v>
       </c>
@@ -21305,7 +21258,7 @@
       </c>
       <c r="AU52" s="29"/>
     </row>
-    <row r="53" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:47" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J53" s="19" t="s">
         <v>72</v>
       </c>
@@ -21335,7 +21288,7 @@
       <c r="AT53" s="28"/>
       <c r="AU53" s="29"/>
     </row>
-    <row r="54" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:47" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="19" t="s">
         <v>73</v>
       </c>
@@ -21382,7 +21335,7 @@
       </c>
       <c r="AU54" s="29"/>
     </row>
-    <row r="55" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:47" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J55" s="14" t="s">
         <v>74</v>
       </c>
@@ -21419,7 +21372,7 @@
       <c r="AT55" s="30"/>
       <c r="AU55" s="31"/>
     </row>
-    <row r="56" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:47" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J56" s="16" t="s">
         <v>75</v>
       </c>
@@ -21465,9 +21418,6 @@
         <v>3927</v>
       </c>
       <c r="AU56" s="36"/>
-      <c r="BH56" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="135">
@@ -21618,54 +21568,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A13512-5DFB-45C9-9E60-3FBB3E4FF9EA}">
   <dimension ref="A1:BH56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="3.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="3.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="21" width="3.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="2" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="2.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="2" customWidth="1"/>
-    <col min="31" max="33" width="3.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="2.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="3.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="2" customWidth="1"/>
-    <col min="37" max="39" width="3.42578125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="2.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="3.28515625" style="2" customWidth="1"/>
-    <col min="42" max="45" width="3.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="2.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="3.28515625" style="2" customWidth="1"/>
-    <col min="48" max="51" width="3.42578125" style="2" customWidth="1"/>
-    <col min="52" max="52" width="2.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="3.5703125" style="2" customWidth="1"/>
-    <col min="54" max="57" width="3.42578125" style="2" customWidth="1"/>
-    <col min="58" max="58" width="2.7109375" style="2" customWidth="1"/>
-    <col min="59" max="59" width="3.5703125" style="2" customWidth="1"/>
-    <col min="60" max="61" width="3.28515625" style="2" customWidth="1"/>
-    <col min="62" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="3" width="3.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="3.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="3.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="3.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="3.44140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="2.5546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="2" customWidth="1"/>
+    <col min="31" max="33" width="3.44140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="2.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="2" customWidth="1"/>
+    <col min="37" max="39" width="3.44140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="2.6640625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="3.33203125" style="2" customWidth="1"/>
+    <col min="42" max="45" width="3.44140625" style="2" customWidth="1"/>
+    <col min="46" max="46" width="2.6640625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="3.33203125" style="2" customWidth="1"/>
+    <col min="48" max="51" width="3.44140625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="2.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="3.5546875" style="2" customWidth="1"/>
+    <col min="54" max="57" width="3.44140625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="2.6640625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="3.5546875" style="2" customWidth="1"/>
+    <col min="60" max="61" width="3.33203125" style="2" customWidth="1"/>
+    <col min="62" max="16384" width="3.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:59" ht="36.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
@@ -21728,7 +21678,7 @@
       <c r="BF1" s="38"/>
       <c r="BG1" s="39"/>
     </row>
-    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="40" t="s">
         <v>68</v>
       </c>
@@ -21791,11 +21741,11 @@
       <c r="BF2" s="41"/>
       <c r="BG2" s="42"/>
     </row>
-    <row r="3" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="BG3" s="15"/>
     </row>
-    <row r="4" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
@@ -21876,7 +21826,7 @@
       <c r="BF4" s="52"/>
       <c r="BG4" s="53"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="L5" s="1"/>
       <c r="R5" s="1"/>
@@ -21887,7 +21837,7 @@
       <c r="AV5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>0</v>
       </c>
@@ -21940,7 +21890,7 @@
       <c r="AV6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
@@ -22011,7 +21961,7 @@
       <c r="AV7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -22052,7 +22002,7 @@
       <c r="AV8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="L9" s="1"/>
       <c r="R9" s="1"/>
@@ -22063,7 +22013,7 @@
       <c r="AV9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>14</v>
       </c>
@@ -22126,7 +22076,7 @@
       <c r="BD10" s="79"/>
       <c r="BE10" s="79"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
@@ -22210,7 +22160,7 @@
       <c r="BD11" s="79"/>
       <c r="BE11" s="79"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -22259,7 +22209,7 @@
       <c r="BD12" s="79"/>
       <c r="BE12" s="79"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="L13" s="1"/>
       <c r="R13" s="1"/>
@@ -22270,7 +22220,7 @@
       <c r="AV13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="75" t="s">
         <v>21</v>
@@ -22295,7 +22245,7 @@
       <c r="AV14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="78"/>
       <c r="H15" s="79"/>
@@ -22326,7 +22276,7 @@
       <c r="AV15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="81"/>
       <c r="H16" s="82"/>
@@ -22382,7 +22332,7 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="L17" s="1"/>
       <c r="R17" s="1"/>
@@ -22443,7 +22393,7 @@
       </c>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="75" t="s">
         <v>24</v>
@@ -22493,7 +22443,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="78"/>
       <c r="H19" s="79"/>
@@ -22524,7 +22474,7 @@
       <c r="AV19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="81"/>
       <c r="H20" s="82"/>
@@ -22545,7 +22495,7 @@
       <c r="AV20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="L21" s="1"/>
       <c r="R21" s="1"/>
@@ -22556,7 +22506,7 @@
       <c r="AV21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
         <v>31</v>
       </c>
@@ -22623,7 +22573,7 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
@@ -22714,7 +22664,7 @@
       </c>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
@@ -22765,7 +22715,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="L25" s="1"/>
       <c r="R25" s="1"/>
@@ -22776,7 +22726,7 @@
       <c r="AV25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="L26" s="1"/>
       <c r="R26" s="1"/>
@@ -22787,7 +22737,7 @@
       <c r="AV26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>38</v>
       </c>
@@ -22847,7 +22797,7 @@
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
@@ -22928,7 +22878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
       <c r="C29" s="83"/>
@@ -22974,7 +22924,7 @@
       <c r="BF29" s="5"/>
       <c r="BG29" s="5"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="L30" s="1"/>
       <c r="R30" s="1"/>
@@ -22985,7 +22935,7 @@
       <c r="AV30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="L31" s="1"/>
       <c r="R31" s="1"/>
@@ -22996,7 +22946,7 @@
       <c r="AV31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>45</v>
       </c>
@@ -23063,7 +23013,7 @@
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
@@ -23154,7 +23104,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="82"/>
       <c r="C34" s="83"/>
@@ -23205,7 +23155,7 @@
       <c r="BF34" s="5"/>
       <c r="BG34" s="5"/>
     </row>
-    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="L35" s="1"/>
       <c r="R35" s="1"/>
@@ -23219,7 +23169,7 @@
       <c r="AV35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
       <c r="R36" s="1"/>
@@ -23230,7 +23180,7 @@
       <c r="AV36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>53</v>
       </c>
@@ -23276,7 +23226,7 @@
       <c r="AV37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
@@ -23337,7 +23287,7 @@
       <c r="AV38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="81"/>
       <c r="B39" s="82"/>
       <c r="C39" s="83"/>
@@ -23373,7 +23323,7 @@
       <c r="AV39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="L40" s="1"/>
       <c r="R40" s="1"/>
@@ -23384,7 +23334,7 @@
       <c r="AV40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>58</v>
       </c>
@@ -23423,7 +23373,7 @@
       <c r="AV41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
@@ -23474,7 +23424,7 @@
       <c r="AV42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="B43" s="82"/>
       <c r="C43" s="83"/>
@@ -23505,7 +23455,7 @@
       <c r="AV43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
       <c r="L44" s="1"/>
       <c r="R44" s="1"/>
@@ -23516,7 +23466,7 @@
       <c r="AV44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>63</v>
       </c>
@@ -23609,7 +23559,7 @@
       </c>
       <c r="BG45" s="85"/>
     </row>
-    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -23702,7 +23652,7 @@
       </c>
       <c r="BG46" s="87"/>
     </row>
-    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>65</v>
       </c>
@@ -23795,7 +23745,7 @@
       </c>
       <c r="BG47" s="85"/>
     </row>
-    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
@@ -23888,8 +23838,8 @@
       </c>
       <c r="BG48" s="89"/>
     </row>
-    <row r="49" spans="10:60" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:60" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J50" s="51" t="s">
         <v>69</v>
       </c>
@@ -23927,7 +23877,7 @@
       <c r="AT50" s="73"/>
       <c r="AU50" s="74"/>
     </row>
-    <row r="51" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -23969,7 +23919,7 @@
       <c r="AT51" s="24"/>
       <c r="AU51" s="25"/>
     </row>
-    <row r="52" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J52" s="19" t="s">
         <v>71</v>
       </c>
@@ -24015,7 +23965,7 @@
       </c>
       <c r="AU52" s="29"/>
     </row>
-    <row r="53" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J53" s="19" t="s">
         <v>72</v>
       </c>
@@ -24045,7 +23995,7 @@
       <c r="AT53" s="28"/>
       <c r="AU53" s="29"/>
     </row>
-    <row r="54" spans="10:60" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:60" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="19" t="s">
         <v>73</v>
       </c>
@@ -24092,7 +24042,7 @@
       </c>
       <c r="AU54" s="29"/>
     </row>
-    <row r="55" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J55" s="14" t="s">
         <v>74</v>
       </c>
@@ -24129,7 +24079,7 @@
       <c r="AT55" s="30"/>
       <c r="AU55" s="31"/>
     </row>
-    <row r="56" spans="10:60" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:60" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J56" s="16" t="s">
         <v>75</v>
       </c>
